--- a/Spiele.xlsx
+++ b/Spiele.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Werfen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE0F32-4CA0-4455-95A4-F2618A58229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82E8E2-67A4-4AAA-A6E1-AF1828BC3DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C71AA212-EE56-4BEF-B44A-1F6A8DFF17E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C71AA212-EE56-4BEF-B44A-1F6A8DFF17E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="212">
   <si>
     <t>Datum</t>
   </si>
@@ -654,6 +654,24 @@
   </si>
   <si>
     <t>Emotionen und Uwe ist auch dabei</t>
+  </si>
+  <si>
+    <t>Lieblingswort Zaza</t>
+  </si>
+  <si>
+    <t>Marwin</t>
+  </si>
+  <si>
+    <t>MFM</t>
+  </si>
+  <si>
+    <t>Normale Kartoffeln auf die Eins</t>
+  </si>
+  <si>
+    <t>Pferde auf die Eins</t>
+  </si>
+  <si>
+    <t>Pain in the Ass (Ace)</t>
   </si>
 </sst>
 </file>
@@ -1015,11 +1033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA1B643-86AC-4FB6-977A-A296E88738A3}">
-  <dimension ref="A1:Z233"/>
+  <dimension ref="A1:Z244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H137" sqref="H136:H137"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I240" sqref="I240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9164,7 +9182,7 @@
         <v>2</v>
       </c>
       <c r="S208">
-        <f t="shared" ref="S208:S233" si="2">SUM(P208,Q208,R208)</f>
+        <f t="shared" ref="S208:S244" si="2">SUM(P208,Q208,R208)</f>
         <v>5</v>
       </c>
       <c r="T208">
@@ -9174,7 +9192,7 @@
         <v>3</v>
       </c>
       <c r="W208">
-        <f t="shared" ref="W208:W233" si="3">SUM(T208,U208,V208)</f>
+        <f t="shared" ref="W208:W244" si="3">SUM(T208,U208,V208)</f>
         <v>6</v>
       </c>
     </row>
@@ -10511,6 +10529,9 @@
       <c r="L233">
         <v>3</v>
       </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
       <c r="P233">
         <v>3</v>
       </c>
@@ -10527,6 +10548,719 @@
       </c>
       <c r="X233">
         <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>27</v>
+      </c>
+      <c r="D234" t="s">
+        <v>11</v>
+      </c>
+      <c r="I234" s="1">
+        <v>45459</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>3</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>3</v>
+      </c>
+      <c r="S234">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="W234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" t="s">
+        <v>123</v>
+      </c>
+      <c r="D235" t="s">
+        <v>207</v>
+      </c>
+      <c r="E235" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235" t="s">
+        <v>43</v>
+      </c>
+      <c r="G235" t="s">
+        <v>206</v>
+      </c>
+      <c r="H235" t="s">
+        <v>208</v>
+      </c>
+      <c r="I235" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>1</v>
+      </c>
+      <c r="P235">
+        <v>2</v>
+      </c>
+      <c r="Q235">
+        <v>3</v>
+      </c>
+      <c r="R235">
+        <v>1</v>
+      </c>
+      <c r="S235">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>1</v>
+      </c>
+      <c r="V235">
+        <v>3</v>
+      </c>
+      <c r="W235">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>27</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" t="s">
+        <v>26</v>
+      </c>
+      <c r="E236" t="s">
+        <v>88</v>
+      </c>
+      <c r="F236" t="s">
+        <v>11</v>
+      </c>
+      <c r="G236" t="s">
+        <v>209</v>
+      </c>
+      <c r="H236" t="s">
+        <v>210</v>
+      </c>
+      <c r="I236" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="P236">
+        <v>2</v>
+      </c>
+      <c r="Q236">
+        <v>1</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
+        <v>1</v>
+      </c>
+      <c r="W236">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>68</v>
+      </c>
+      <c r="B237" t="s">
+        <v>32</v>
+      </c>
+      <c r="C237" t="s">
+        <v>77</v>
+      </c>
+      <c r="D237" t="s">
+        <v>207</v>
+      </c>
+      <c r="E237" t="s">
+        <v>17</v>
+      </c>
+      <c r="F237" t="s">
+        <v>43</v>
+      </c>
+      <c r="G237" t="s">
+        <v>211</v>
+      </c>
+      <c r="H237" t="s">
+        <v>208</v>
+      </c>
+      <c r="I237" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="P237">
+        <v>1</v>
+      </c>
+      <c r="Q237">
+        <v>2</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>5</v>
+      </c>
+      <c r="V237">
+        <v>1</v>
+      </c>
+      <c r="W237">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>27</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" t="s">
+        <v>22</v>
+      </c>
+      <c r="D238" t="s">
+        <v>48</v>
+      </c>
+      <c r="E238" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238" t="s">
+        <v>123</v>
+      </c>
+      <c r="G238" t="s">
+        <v>209</v>
+      </c>
+      <c r="H238" t="s">
+        <v>206</v>
+      </c>
+      <c r="I238" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>3</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="P238">
+        <v>4</v>
+      </c>
+      <c r="Q238">
+        <v>2</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
+        <v>1</v>
+      </c>
+      <c r="W238">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>26</v>
+      </c>
+      <c r="B239" t="s">
+        <v>88</v>
+      </c>
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>68</v>
+      </c>
+      <c r="E239" t="s">
+        <v>32</v>
+      </c>
+      <c r="F239" t="s">
+        <v>77</v>
+      </c>
+      <c r="G239" t="s">
+        <v>210</v>
+      </c>
+      <c r="H239" t="s">
+        <v>211</v>
+      </c>
+      <c r="I239" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239">
+        <v>1</v>
+      </c>
+      <c r="P239">
+        <v>3</v>
+      </c>
+      <c r="Q239">
+        <v>2</v>
+      </c>
+      <c r="R239">
+        <v>4</v>
+      </c>
+      <c r="S239">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>4</v>
+      </c>
+      <c r="V239">
+        <v>4</v>
+      </c>
+      <c r="W239">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>207</v>
+      </c>
+      <c r="B240" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" t="s">
+        <v>43</v>
+      </c>
+      <c r="D240" t="s">
+        <v>27</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
+        <v>22</v>
+      </c>
+      <c r="G240" t="s">
+        <v>208</v>
+      </c>
+      <c r="H240" t="s">
+        <v>209</v>
+      </c>
+      <c r="I240" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="P240">
+        <v>1</v>
+      </c>
+      <c r="Q240">
+        <v>4</v>
+      </c>
+      <c r="R240">
+        <v>1</v>
+      </c>
+      <c r="S240">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T240">
+        <v>2</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+      <c r="V240">
+        <v>3</v>
+      </c>
+      <c r="W240">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>26</v>
+      </c>
+      <c r="B241" t="s">
+        <v>88</v>
+      </c>
+      <c r="C241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241" t="s">
+        <v>123</v>
+      </c>
+      <c r="G241" t="s">
+        <v>210</v>
+      </c>
+      <c r="H241" t="s">
+        <v>206</v>
+      </c>
+      <c r="I241" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="P241">
+        <v>4</v>
+      </c>
+      <c r="Q241">
+        <v>1</v>
+      </c>
+      <c r="R241">
+        <v>1</v>
+      </c>
+      <c r="S241">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T241">
+        <v>2</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
+        <v>1</v>
+      </c>
+      <c r="W241">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>68</v>
+      </c>
+      <c r="B242" t="s">
+        <v>32</v>
+      </c>
+      <c r="C242" t="s">
+        <v>77</v>
+      </c>
+      <c r="D242" t="s">
+        <v>27</v>
+      </c>
+      <c r="E242" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
+        <v>22</v>
+      </c>
+      <c r="G242" t="s">
+        <v>211</v>
+      </c>
+      <c r="H242" t="s">
+        <v>209</v>
+      </c>
+      <c r="I242" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
+        <v>1</v>
+      </c>
+      <c r="R242">
+        <v>3</v>
+      </c>
+      <c r="S242">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T242">
+        <v>4</v>
+      </c>
+      <c r="U242">
+        <v>2</v>
+      </c>
+      <c r="V242">
+        <v>0</v>
+      </c>
+      <c r="W242">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>207</v>
+      </c>
+      <c r="B243" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243" t="s">
+        <v>43</v>
+      </c>
+      <c r="D243" t="s">
+        <v>26</v>
+      </c>
+      <c r="E243" t="s">
+        <v>88</v>
+      </c>
+      <c r="F243" t="s">
+        <v>11</v>
+      </c>
+      <c r="G243" t="s">
+        <v>208</v>
+      </c>
+      <c r="H243" t="s">
+        <v>210</v>
+      </c>
+      <c r="I243" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>3</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>0</v>
+      </c>
+      <c r="V243">
+        <v>3</v>
+      </c>
+      <c r="W243">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>48</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" t="s">
+        <v>123</v>
+      </c>
+      <c r="D244" t="s">
+        <v>68</v>
+      </c>
+      <c r="E244" t="s">
+        <v>32</v>
+      </c>
+      <c r="F244" t="s">
+        <v>77</v>
+      </c>
+      <c r="G244" t="s">
+        <v>206</v>
+      </c>
+      <c r="H244" t="s">
+        <v>211</v>
+      </c>
+      <c r="I244" s="1">
+        <v>45458</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244">
+        <v>1</v>
+      </c>
+      <c r="P244">
+        <v>2</v>
+      </c>
+      <c r="Q244">
+        <v>2</v>
+      </c>
+      <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T244">
+        <v>1</v>
+      </c>
+      <c r="U244">
+        <v>1</v>
+      </c>
+      <c r="V244">
+        <v>7</v>
+      </c>
+      <c r="W244">
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Spiele.xlsx
+++ b/Spiele.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Werfen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Werfen\werfen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82E8E2-67A4-4AAA-A6E1-AF1828BC3DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5BEF34-6541-4AF7-A287-F1231ACB3528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C71AA212-EE56-4BEF-B44A-1F6A8DFF17E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="237">
   <si>
     <t>Datum</t>
   </si>
@@ -672,6 +672,81 @@
   </si>
   <si>
     <t>Pain in the Ass (Ace)</t>
+  </si>
+  <si>
+    <t>DD - Dirk &amp; Dora</t>
+  </si>
+  <si>
+    <t>Alles Andere als Arbeit</t>
+  </si>
+  <si>
+    <t>Garruk Ultras</t>
+  </si>
+  <si>
+    <t>Die Prenzlauer Crew</t>
+  </si>
+  <si>
+    <t>Fleißigen Bienen Bzz Bzz</t>
+  </si>
+  <si>
+    <t>Pferdewelle Stampf Stampf</t>
+  </si>
+  <si>
+    <t>Zuckerlager voll</t>
+  </si>
+  <si>
+    <t>Emilio, André</t>
+  </si>
+  <si>
+    <t>André, André</t>
+  </si>
+  <si>
+    <t>Team Heul doch</t>
+  </si>
+  <si>
+    <t>Die romantischen Matrosen</t>
+  </si>
+  <si>
+    <t>Pokerogue Prodigies</t>
+  </si>
+  <si>
+    <t>Leonie</t>
+  </si>
+  <si>
+    <t>K-Hole</t>
+  </si>
+  <si>
+    <t>Schnelle Bälle</t>
+  </si>
+  <si>
+    <t>Best LoL-Players in the room</t>
+  </si>
+  <si>
+    <t>Two Bikey Boys Go Vroom</t>
+  </si>
+  <si>
+    <t>ZaZa Grill</t>
+  </si>
+  <si>
+    <t>I got bit by a WIDDER</t>
+  </si>
+  <si>
+    <t>Bowle Batallion</t>
+  </si>
+  <si>
+    <t>So ein großer Yarak</t>
+  </si>
+  <si>
+    <t>Redemption Arc</t>
+  </si>
+  <si>
+    <t>Mehmet Arms</t>
+  </si>
+  <si>
+    <t>Trinkbecher getroffen</t>
+  </si>
+  <si>
+    <t>Chris -&gt; Merlin</t>
   </si>
 </sst>
 </file>
@@ -1033,11 +1108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA1B643-86AC-4FB6-977A-A296E88738A3}">
-  <dimension ref="A1:Z244"/>
+  <dimension ref="A1:AA269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I240" sqref="I240"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T269" sqref="T269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1127,7 @@
     <col min="8" max="8" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1131,8 +1206,11 @@
       <c r="Z1" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1219,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1277,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1306,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1422,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -11261,6 +11339,1208 @@
       <c r="W244">
         <f t="shared" si="3"/>
         <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245" t="s">
+        <v>43</v>
+      </c>
+      <c r="E245" t="s">
+        <v>13</v>
+      </c>
+      <c r="G245" t="s">
+        <v>214</v>
+      </c>
+      <c r="H245" t="s">
+        <v>215</v>
+      </c>
+      <c r="I245" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245">
+        <v>1</v>
+      </c>
+      <c r="P245">
+        <v>6</v>
+      </c>
+      <c r="Q245">
+        <v>3</v>
+      </c>
+      <c r="S245">
+        <v>3</v>
+      </c>
+      <c r="T245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>26</v>
+      </c>
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s">
+        <v>16</v>
+      </c>
+      <c r="E246" t="s">
+        <v>46</v>
+      </c>
+      <c r="G246" t="s">
+        <v>217</v>
+      </c>
+      <c r="H246" t="s">
+        <v>216</v>
+      </c>
+      <c r="I246" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246" t="s">
+        <v>26</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="P246">
+        <v>5</v>
+      </c>
+      <c r="Q246">
+        <v>1</v>
+      </c>
+      <c r="S246">
+        <v>2</v>
+      </c>
+      <c r="T246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>16</v>
+      </c>
+      <c r="B247" t="s">
+        <v>46</v>
+      </c>
+      <c r="D247" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" t="s">
+        <v>22</v>
+      </c>
+      <c r="G247" t="s">
+        <v>216</v>
+      </c>
+      <c r="H247" t="s">
+        <v>214</v>
+      </c>
+      <c r="I247" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
+        <v>4</v>
+      </c>
+      <c r="S247">
+        <v>4</v>
+      </c>
+      <c r="T247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>43</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" t="s">
+        <v>26</v>
+      </c>
+      <c r="E248" t="s">
+        <v>11</v>
+      </c>
+      <c r="G248" t="s">
+        <v>215</v>
+      </c>
+      <c r="H248" t="s">
+        <v>217</v>
+      </c>
+      <c r="I248" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="P248">
+        <v>3</v>
+      </c>
+      <c r="Q248">
+        <v>3</v>
+      </c>
+      <c r="S248">
+        <v>3</v>
+      </c>
+      <c r="T248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>16</v>
+      </c>
+      <c r="B249" t="s">
+        <v>46</v>
+      </c>
+      <c r="D249" t="s">
+        <v>43</v>
+      </c>
+      <c r="E249" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249" t="s">
+        <v>216</v>
+      </c>
+      <c r="H249" t="s">
+        <v>215</v>
+      </c>
+      <c r="I249" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="P249">
+        <v>2</v>
+      </c>
+      <c r="Q249">
+        <v>4</v>
+      </c>
+      <c r="S249">
+        <v>1</v>
+      </c>
+      <c r="T249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>26</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
+        <v>22</v>
+      </c>
+      <c r="G250" t="s">
+        <v>217</v>
+      </c>
+      <c r="H250" t="s">
+        <v>214</v>
+      </c>
+      <c r="I250" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="P250">
+        <v>1</v>
+      </c>
+      <c r="Q250">
+        <v>3</v>
+      </c>
+      <c r="S250">
+        <v>4</v>
+      </c>
+      <c r="T250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>26</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" t="s">
+        <v>46</v>
+      </c>
+      <c r="G251" t="s">
+        <v>212</v>
+      </c>
+      <c r="H251" t="s">
+        <v>213</v>
+      </c>
+      <c r="I251" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="P251">
+        <v>2</v>
+      </c>
+      <c r="Q251">
+        <v>4</v>
+      </c>
+      <c r="S251">
+        <v>1</v>
+      </c>
+      <c r="T251">
+        <v>1</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" t="s">
+        <v>46</v>
+      </c>
+      <c r="D252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" t="s">
+        <v>22</v>
+      </c>
+      <c r="G252" t="s">
+        <v>213</v>
+      </c>
+      <c r="H252" t="s">
+        <v>218</v>
+      </c>
+      <c r="I252" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252" t="s">
+        <v>219</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252">
+        <v>1</v>
+      </c>
+      <c r="P252">
+        <v>2</v>
+      </c>
+      <c r="Q252">
+        <v>3</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>5</v>
+      </c>
+      <c r="T252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" t="s">
+        <v>26</v>
+      </c>
+      <c r="E253" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" t="s">
+        <v>218</v>
+      </c>
+      <c r="H253" t="s">
+        <v>212</v>
+      </c>
+      <c r="I253" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253" t="s">
+        <v>220</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="P253">
+        <v>3</v>
+      </c>
+      <c r="Q253">
+        <v>3</v>
+      </c>
+      <c r="S253">
+        <v>2</v>
+      </c>
+      <c r="T253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" t="s">
+        <v>221</v>
+      </c>
+      <c r="H254" t="s">
+        <v>222</v>
+      </c>
+      <c r="I254" s="1">
+        <v>45479</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>1</v>
+      </c>
+      <c r="P254">
+        <v>2</v>
+      </c>
+      <c r="Q254">
+        <v>4</v>
+      </c>
+      <c r="S254">
+        <v>4</v>
+      </c>
+      <c r="T254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>26</v>
+      </c>
+      <c r="B255" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" t="s">
+        <v>229</v>
+      </c>
+      <c r="H255" t="s">
+        <v>230</v>
+      </c>
+      <c r="I255" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>3</v>
+      </c>
+      <c r="P255">
+        <v>3</v>
+      </c>
+      <c r="Q255">
+        <v>2</v>
+      </c>
+      <c r="S255">
+        <v>2</v>
+      </c>
+      <c r="T255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" t="s">
+        <v>27</v>
+      </c>
+      <c r="D256" t="s">
+        <v>26</v>
+      </c>
+      <c r="E256" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" t="s">
+        <v>231</v>
+      </c>
+      <c r="H256" t="s">
+        <v>229</v>
+      </c>
+      <c r="I256" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>3</v>
+      </c>
+      <c r="P256">
+        <v>1</v>
+      </c>
+      <c r="Q256">
+        <v>3</v>
+      </c>
+      <c r="S256">
+        <v>3</v>
+      </c>
+      <c r="T256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" t="s">
+        <v>27</v>
+      </c>
+      <c r="G257" t="s">
+        <v>230</v>
+      </c>
+      <c r="H257" t="s">
+        <v>231</v>
+      </c>
+      <c r="I257" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="N257">
+        <v>3</v>
+      </c>
+      <c r="P257">
+        <v>2</v>
+      </c>
+      <c r="Q257">
+        <v>4</v>
+      </c>
+      <c r="S257">
+        <v>2</v>
+      </c>
+      <c r="T257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" t="s">
+        <v>224</v>
+      </c>
+      <c r="G258" t="s">
+        <v>225</v>
+      </c>
+      <c r="H258" t="s">
+        <v>226</v>
+      </c>
+      <c r="I258" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>3</v>
+      </c>
+      <c r="P258">
+        <v>3</v>
+      </c>
+      <c r="Q258">
+        <v>3</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" t="s">
+        <v>27</v>
+      </c>
+      <c r="D259" t="s">
+        <v>32</v>
+      </c>
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+      <c r="G259" t="s">
+        <v>227</v>
+      </c>
+      <c r="H259" t="s">
+        <v>228</v>
+      </c>
+      <c r="I259" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="P259">
+        <v>3</v>
+      </c>
+      <c r="Q259">
+        <v>1</v>
+      </c>
+      <c r="S259">
+        <v>3</v>
+      </c>
+      <c r="T259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260" t="s">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" t="s">
+        <v>16</v>
+      </c>
+      <c r="G260" t="s">
+        <v>228</v>
+      </c>
+      <c r="H260" t="s">
+        <v>225</v>
+      </c>
+      <c r="I260" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>3</v>
+      </c>
+      <c r="P260">
+        <v>2</v>
+      </c>
+      <c r="Q260">
+        <v>3</v>
+      </c>
+      <c r="S260">
+        <v>3</v>
+      </c>
+      <c r="T260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>22</v>
+      </c>
+      <c r="B261" t="s">
+        <v>224</v>
+      </c>
+      <c r="D261" t="s">
+        <v>26</v>
+      </c>
+      <c r="E261" t="s">
+        <v>27</v>
+      </c>
+      <c r="G261" t="s">
+        <v>226</v>
+      </c>
+      <c r="H261" t="s">
+        <v>227</v>
+      </c>
+      <c r="I261" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="P261">
+        <v>2</v>
+      </c>
+      <c r="Q261">
+        <v>3</v>
+      </c>
+      <c r="S261">
+        <v>5</v>
+      </c>
+      <c r="T261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>22</v>
+      </c>
+      <c r="B262" t="s">
+        <v>224</v>
+      </c>
+      <c r="D262" t="s">
+        <v>32</v>
+      </c>
+      <c r="E262" t="s">
+        <v>11</v>
+      </c>
+      <c r="G262" t="s">
+        <v>226</v>
+      </c>
+      <c r="H262" t="s">
+        <v>228</v>
+      </c>
+      <c r="I262" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>2</v>
+      </c>
+      <c r="N262">
+        <v>3</v>
+      </c>
+      <c r="P262">
+        <v>2</v>
+      </c>
+      <c r="Q262">
+        <v>4</v>
+      </c>
+      <c r="S262">
+        <v>3</v>
+      </c>
+      <c r="T262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" t="s">
+        <v>26</v>
+      </c>
+      <c r="E263" t="s">
+        <v>27</v>
+      </c>
+      <c r="G263" t="s">
+        <v>225</v>
+      </c>
+      <c r="H263" t="s">
+        <v>227</v>
+      </c>
+      <c r="I263" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="P263">
+        <v>3</v>
+      </c>
+      <c r="Q263">
+        <v>3</v>
+      </c>
+      <c r="S263">
+        <v>1</v>
+      </c>
+      <c r="T263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>22</v>
+      </c>
+      <c r="B264" t="s">
+        <v>13</v>
+      </c>
+      <c r="D264" t="s">
+        <v>32</v>
+      </c>
+      <c r="E264" t="s">
+        <v>224</v>
+      </c>
+      <c r="G264" t="s">
+        <v>223</v>
+      </c>
+      <c r="H264" t="s">
+        <v>232</v>
+      </c>
+      <c r="I264" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="P264">
+        <v>3</v>
+      </c>
+      <c r="Q264">
+        <v>2</v>
+      </c>
+      <c r="S264">
+        <v>4</v>
+      </c>
+      <c r="T264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>27</v>
+      </c>
+      <c r="B265" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" t="s">
+        <v>26</v>
+      </c>
+      <c r="G265" t="s">
+        <v>233</v>
+      </c>
+      <c r="H265" t="s">
+        <v>234</v>
+      </c>
+      <c r="I265" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="P265">
+        <v>2</v>
+      </c>
+      <c r="Q265">
+        <v>3</v>
+      </c>
+      <c r="S265">
+        <v>4</v>
+      </c>
+      <c r="T265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>27</v>
+      </c>
+      <c r="B266" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" t="s">
+        <v>32</v>
+      </c>
+      <c r="E266" t="s">
+        <v>224</v>
+      </c>
+      <c r="G266" t="s">
+        <v>233</v>
+      </c>
+      <c r="H266" t="s">
+        <v>232</v>
+      </c>
+      <c r="I266" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>3</v>
+      </c>
+      <c r="P266">
+        <v>2</v>
+      </c>
+      <c r="Q266">
+        <v>4</v>
+      </c>
+      <c r="S266">
+        <v>3</v>
+      </c>
+      <c r="T266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>26</v>
+      </c>
+      <c r="D267" t="s">
+        <v>22</v>
+      </c>
+      <c r="E267" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267" t="s">
+        <v>234</v>
+      </c>
+      <c r="H267" t="s">
+        <v>223</v>
+      </c>
+      <c r="I267" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="P267">
+        <v>1</v>
+      </c>
+      <c r="Q267">
+        <v>3</v>
+      </c>
+      <c r="S267">
+        <v>2</v>
+      </c>
+      <c r="T267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>22</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>27</v>
+      </c>
+      <c r="E268" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" t="s">
+        <v>223</v>
+      </c>
+      <c r="H268" t="s">
+        <v>233</v>
+      </c>
+      <c r="I268" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>4</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="P268">
+        <v>3</v>
+      </c>
+      <c r="Q268">
+        <v>3</v>
+      </c>
+      <c r="S268">
+        <v>1</v>
+      </c>
+      <c r="T268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>32</v>
+      </c>
+      <c r="B269" t="s">
+        <v>224</v>
+      </c>
+      <c r="D269" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269" t="s">
+        <v>26</v>
+      </c>
+      <c r="G269" t="s">
+        <v>232</v>
+      </c>
+      <c r="H269" t="s">
+        <v>234</v>
+      </c>
+      <c r="I269" s="1">
+        <v>45500</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="N269">
+        <v>3</v>
+      </c>
+      <c r="P269">
+        <v>3</v>
+      </c>
+      <c r="S269">
+        <v>1</v>
+      </c>
+      <c r="T269">
+        <v>3</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
